--- a/readWritePandas/test.xlsx
+++ b/readWritePandas/test.xlsx
@@ -8,19 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asset\Documents\GitHub\pythonExcelCourse\readWritePandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71F3124-ADC9-470B-AEE7-C9A1BF93AFE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA152EC5-1E0F-4D36-B911-358D96A9D6BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="9">
+  <si>
+    <t>updated 555</t>
+  </si>
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
@@ -38,6 +45,9 @@
   </si>
   <si>
     <t>Atul</t>
+  </si>
+  <si>
+    <t>updated value</t>
   </si>
 </sst>
 </file>
@@ -400,108 +410,354 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
         <v>50</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
         <v>40</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
         <v>90</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
         <v>40</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
         <v>10</v>
       </c>
-      <c r="D7">
+      <c r="E7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>90</v>
+      </c>
+      <c r="E8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B6:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>90</v>
+      </c>
+      <c r="F10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>90</v>
+      </c>
+      <c r="F13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>40</v>
+      </c>
+      <c r="F14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>